--- a/cataniaconcordance.xlsx
+++ b/cataniaconcordance.xlsx
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,44 +560,44 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="C10" s="3">
-        <v>343</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1279</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C11" s="3">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
+      <c r="B12" s="3">
+        <v>321</v>
       </c>
       <c r="C12" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,360 +608,360 @@
         <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4">
-        <v>631</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>538</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4">
-        <v>308</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>539</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>538</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22</v>
       </c>
       <c r="D17" s="4">
-        <v>649</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>354</v>
-      </c>
-      <c r="C18" s="3">
-        <v>237</v>
+        <v>539</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>297</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>841</v>
+        <v>354</v>
       </c>
       <c r="C19" s="3">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="D19" s="4">
-        <v>3236</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>390</v>
+        <v>841</v>
       </c>
       <c r="C20" s="3">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4">
-        <v>330</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>568</v>
+        <v>390</v>
       </c>
       <c r="C21" s="3">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>393</v>
+        <v>568</v>
       </c>
       <c r="C22" s="3">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4">
-        <v>378</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="C23" s="3">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4">
-        <v>704</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>939</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4">
-        <v>348</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>350</v>
+        <v>939</v>
       </c>
       <c r="C25" s="3">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4">
-        <v>383</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>232</v>
+        <v>350</v>
       </c>
       <c r="C26" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="4">
-        <v>3263</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="3">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D27" s="4">
-        <v>3223</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="C28" s="3">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4">
-        <v>1308</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C29" s="3">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>531</v>
+        <v>272</v>
       </c>
       <c r="C30" s="3">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4">
-        <v>1649</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>244</v>
+        <v>531</v>
       </c>
       <c r="C31" s="3">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D31" s="4">
-        <v>1359</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>719</v>
+        <v>244</v>
       </c>
       <c r="C32" s="3">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D32" s="4">
-        <v>1344</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>231</v>
+        <v>719</v>
       </c>
       <c r="C33" s="3">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" s="4">
-        <v>964</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>540</v>
+        <v>231</v>
       </c>
       <c r="C34" s="3">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="D34" s="4">
-        <v>781</v>
+        <v>964</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="C35" s="3">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="4">
-        <v>1628</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>716</v>
+        <v>268</v>
       </c>
       <c r="C36" s="3">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D36" s="4">
-        <v>1355</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>716</v>
+      </c>
+      <c r="C37" s="3">
+        <v>187</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>541</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C38" s="3">
         <v>364</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1335</v>
-      </c>
-      <c r="C38" s="2">
-        <v>21</v>
-      </c>
-      <c r="D38" s="5">
-        <v>312</v>
+      <c r="D38" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,41 +969,41 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C39" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D39" s="5">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
+      <c r="B40" s="2">
+        <v>1337</v>
       </c>
       <c r="C40" s="2">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5">
-        <v>1345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2">
-        <v>1332</v>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D41" s="5">
-        <v>306</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,48 +1017,62 @@
         <v>35</v>
       </c>
       <c r="D42" s="5">
-        <v>3159</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>230</v>
+        <v>1332</v>
       </c>
       <c r="C43" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D43" s="5">
-        <v>307</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
+      <c r="B44" s="2">
+        <v>230</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="5">
-        <v>3109</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
     </row>
